--- a/YM Spreadsheet.xlsx
+++ b/YM Spreadsheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="618">
   <si>
     <t>File Name</t>
   </si>
@@ -1852,6 +1852,21 @@
   </si>
   <si>
     <t>Map Screenshot Return to Japan</t>
+  </si>
+  <si>
+    <t>YM_MIC_234</t>
+  </si>
+  <si>
+    <t>Figure II</t>
+  </si>
+  <si>
+    <t>from When I Was A Cild</t>
+  </si>
+  <si>
+    <t>YM_MIC_235</t>
+  </si>
+  <si>
+    <t>Main Site Project Refleciton</t>
   </si>
 </sst>
 </file>
@@ -7258,6 +7273,46 @@
         <v>2022.0</v>
       </c>
     </row>
+    <row r="236">
+      <c r="A236" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="F236" s="1">
+        <v>1912.0</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="F237" s="1">
+        <v>2022.0</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="H2"/>
